--- a/ResultsPrediction/Input_Scommessa_8.xlsx
+++ b/ResultsPrediction/Input_Scommessa_8.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vittu\Documents\Stupido\Betting\ResultsPrediction\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1883695-E515-4E5C-BF44-C24E98D43023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -106,8 +100,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,14 +164,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -224,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,27 +242,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,24 +276,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,16 +451,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,15 +481,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.0939896446242594</v>
+        <v>5.102335785814724</v>
       </c>
       <c r="C2">
-        <v>6.2242712558927877</v>
+        <v>6.135771264509594</v>
       </c>
       <c r="D2">
         <v>4.5</v>
@@ -559,15 +507,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.0906499591666678</v>
+        <v>6.090649959166668</v>
       </c>
       <c r="C3">
-        <v>6.1690742923729314</v>
+        <v>6.169074292372931</v>
       </c>
       <c r="D3">
         <v>5.75</v>
@@ -585,12 +533,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.0419411130000968</v>
+        <v>6.137456155375406</v>
       </c>
       <c r="C4">
         <v>4.805373316120698</v>
@@ -611,15 +559,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.9828707714834843</v>
+        <v>5.930117065756425</v>
       </c>
       <c r="C5">
-        <v>5.7277695127218156</v>
+        <v>5.744895021188859</v>
       </c>
       <c r="D5">
         <v>1.55</v>
@@ -637,15 +585,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.9964147483001318</v>
+        <v>5.983852791196446</v>
       </c>
       <c r="C6">
-        <v>6.1144892533704613</v>
+        <v>6.090875258850894</v>
       </c>
       <c r="D6">
         <v>1.35</v>
@@ -663,15 +611,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.3076980476080946</v>
+        <v>6.307698047608095</v>
       </c>
       <c r="C7">
-        <v>5.7960556281914224</v>
+        <v>5.775077483633254</v>
       </c>
       <c r="D7">
         <v>1.5</v>
@@ -689,18 +637,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.4007164686947648</v>
+        <v>5.465312693427742</v>
       </c>
       <c r="C8">
-        <v>6.4846991722901981</v>
+        <v>6.484699172290198</v>
       </c>
       <c r="D8">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="E8">
         <v>3.45</v>
@@ -715,15 +663,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.2401860784920737</v>
+        <v>6.240186078492074</v>
       </c>
       <c r="C9">
-        <v>6.1544439789796561</v>
+        <v>6.175539651802586</v>
       </c>
       <c r="D9">
         <v>2.9</v>
@@ -741,15 +689,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.296473141768792</v>
+        <v>6.271727777662242</v>
       </c>
       <c r="C10">
-        <v>5.2549935455819341</v>
+        <v>5.299931936610919</v>
       </c>
       <c r="D10">
         <v>1.95</v>
@@ -767,15 +715,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.7236178848620423</v>
+        <v>5.65361300174162</v>
       </c>
       <c r="C11">
-        <v>6.3994981302475562</v>
+        <v>6.399498130247556</v>
       </c>
       <c r="D11">
         <v>2.15</v>
